--- a/Database/NewDatabase.xlsx
+++ b/Database/NewDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tatvasoft\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tatvasoft\SRS\NoteMarketPlaceHTML\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="171">
   <si>
     <t xml:space="preserve">Notes  - MarketPlace </t>
   </si>
@@ -609,6 +609,57 @@
   </si>
   <si>
     <t>CountryCode</t>
+  </si>
+  <si>
+    <t>Table:- ManageSystem</t>
+  </si>
+  <si>
+    <t>This table stored system configurations . This should only be visible to Super Admin.</t>
+  </si>
+  <si>
+    <t>SupportEmail</t>
+  </si>
+  <si>
+    <t>SupportContactNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>NoteDisplayPicture</t>
+  </si>
+  <si>
+    <t>MemberDisplayPicture</t>
+  </si>
+  <si>
+    <t>FacebookLink</t>
+  </si>
+  <si>
+    <t>TwitterLink</t>
+  </si>
+  <si>
+    <t>LinkedlnLink</t>
+  </si>
+  <si>
+    <t>SuperAdmin who updated a record.</t>
+  </si>
+  <si>
+    <t>Super admin needs to mention link for redirection</t>
+  </si>
+  <si>
+    <t>if seller do not upload any note display picture system should use this for display</t>
+  </si>
+  <si>
+    <t>if member do not upload any display picture system should use this for display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify to them on certain events </t>
+  </si>
+  <si>
+    <t>Support Contact Number</t>
+  </si>
+  <si>
+    <t>Support Email</t>
   </si>
 </sst>
 </file>
@@ -714,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,15 +796,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,29 +1122,29 @@
       <c r="F3" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1515,29 +1567,29 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -1749,29 +1801,29 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
@@ -2177,29 +2229,29 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -2607,29 +2659,29 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
@@ -2749,29 +2801,29 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
@@ -2898,29 +2950,29 @@
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
@@ -3076,29 +3128,29 @@
       <c r="F152" s="9"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
@@ -3225,29 +3277,29 @@
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
     </row>
     <row r="168" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
@@ -3391,29 +3443,29 @@
       </c>
     </row>
     <row r="180" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
     </row>
     <row r="181" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="14" t="s">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+    </row>
+    <row r="182" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B182" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
@@ -3556,30 +3608,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="15" t="s">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-    </row>
-    <row r="195" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="14" t="s">
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+    </row>
+    <row r="196" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B196" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
@@ -3720,31 +3772,256 @@
         <v>62</v>
       </c>
     </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+    </row>
+    <row r="210" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B210" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" s="7"/>
+      <c r="E212" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D213" s="7">
+        <v>100</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D214" s="7">
+        <v>20</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D215" s="7">
+        <v>100</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F215" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="7">
+        <v>100</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F216" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D217" s="7">
+        <v>100</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F217" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218" s="7">
+        <v>100</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="7">
+        <v>100</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" s="7">
+        <v>100</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F220" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B194:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B208:F209"/>
+    <mergeCell ref="B153:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B166:F167"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B126:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B139:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B54:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B84:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B114:F115"/>
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B36:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B54:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B84:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B114:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B126:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B139:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B153:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B166:F167"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B180:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B194:F195"/>
-    <mergeCell ref="B196:F196"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
